--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T05:30:15+00:00</t>
+    <t>2024-03-18T05:38:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T05:38:44+00:00</t>
+    <t>2024-03-18T05:57:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T05:57:33+00:00</t>
+    <t>2024-03-18T06:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T06:27:27+00:00</t>
+    <t>2024-03-18T06:45:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T06:45:53+00:00</t>
+    <t>2024-03-18T07:21:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T07:21:08+00:00</t>
+    <t>2024-03-18T07:31:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T07:31:17+00:00</t>
+    <t>2024-03-18T07:41:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T07:41:19+00:00</t>
+    <t>2024-03-19T07:59:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>urn:ietf:rfc:3986#Uniform Resource Identifier (URI)#urn:oid:1.2.40.0.34.10.172 (use: OFFICIAL)</t>
+    <t>OID:1.2.40.0.34.10.172 (use: OFFICIAL)</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T07:59:10+00:00</t>
+    <t>2024-03-19T11:07:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T11:07:16+00:00</t>
+    <t>2024-03-19T11:54:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T11:54:35+00:00</t>
+    <t>2024-03-19T12:43:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T12:43:53+00:00</t>
+    <t>2024-03-19T13:26:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T13:26:08+00:00</t>
+    <t>2024-03-19T13:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T13:51:00+00:00</t>
+    <t>2024-03-20T06:05:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T06:05:05+00:00</t>
+    <t>2024-03-20T06:22:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T06:22:30+00:00</t>
+    <t>2024-03-20T06:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T06:38:18+00:00</t>
+    <t>2024-03-20T06:50:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T06:50:09+00:00</t>
+    <t>2024-03-20T07:15:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T07:15:53+00:00</t>
+    <t>2024-03-20T07:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T07:24:45+00:00</t>
+    <t>2024-03-20T08:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T08:43:36+00:00</t>
+    <t>2024-03-20T10:46:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T10:46:57+00:00</t>
+    <t>2024-03-25T06:36:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T06:36:04+00:00</t>
+    <t>2024-03-25T07:16:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T07:16:48+00:00</t>
+    <t>2024-03-25T07:28:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T07:28:08+00:00</t>
+    <t>2024-03-25T07:34:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T07:34:39+00:00</t>
+    <t>2024-03-27T04:56:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T07:53:49+00:00</t>
+    <t>2024-04-17T12:44:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T12:44:15+00:00</t>
+    <t>2024-04-17T12:55:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T12:55:02+00:00</t>
+    <t>2024-04-17T13:15:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:15:16+00:00</t>
+    <t>2024-04-17T13:21:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:21:13+00:00</t>
+    <t>2024-04-17T13:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:37:39+00:00</t>
+    <t>2024-04-17T13:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:46:31+00:00</t>
+    <t>2024-04-18T05:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T05:14:46+00:00</t>
+    <t>2024-04-18T05:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T05:19:41+00:00</t>
+    <t>2024-04-18T08:01:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T08:01:47+00:00</t>
+    <t>2024-04-25T15:11:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T15:11:21+00:00</t>
+    <t>2024-04-25T15:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T15:28:15+00:00</t>
+    <t>2024-04-29T05:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:01:25+00:00</t>
+    <t>2024-04-29T05:16:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:16:02+00:00</t>
+    <t>2024-04-29T05:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:29:51+00:00</t>
+    <t>2024-04-29T05:40:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:40:46+00:00</t>
+    <t>2024-04-29T05:49:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:49:30+00:00</t>
+    <t>2024-04-29T07:46:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T07:46:22+00:00</t>
+    <t>2024-04-29T14:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T14:03:26+00:00</t>
+    <t>2024-04-30T04:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T04:58:04+00:00</t>
+    <t>2024-04-30T05:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T05:08:54+00:00</t>
+    <t>2024-04-30T09:05:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T09:05:02+00:00</t>
+    <t>2024-05-06T07:04:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r5-ELGA-e-medikation-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T07:04:06+00:00</t>
+    <t>2024-05-06T08:04:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
